--- a/TP2/Ej1/Mediciones No inversor/Bode/Caso 3.xlsx
+++ b/TP2/Ej1/Mediciones No inversor/Bode/Caso 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\Mediciones No inversor\Bode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\source\repos\TC\TP2\Ej1\Mediciones No inversor\Bode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78548D4D-675D-4CF0-BEAA-8FBE1ABB8F11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098350A5-409B-4CDC-BD89-E49D85333C19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -762,7 +762,7 @@
         <v>-1.7</v>
       </c>
       <c r="C14" s="5">
-        <v>-110</v>
+        <v>-83</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="7"/>
